--- a/SE-4347.501-DB/Grades.xlsx
+++ b/SE-4347.501-DB/Grades.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDFall2018\GradesTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDFall2018\SE-4347.501-DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CA5F47-68D4-43F7-83AD-CCD6C7AD4E95}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36152B2E-AE77-4CA9-A201-F1DDB9A114FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4830" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,13 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -242,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,9 +294,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,7 +666,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,8 +677,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -698,11 +702,11 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="23"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="2" t="s">
         <v>10</v>
       </c>
@@ -712,7 +716,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="15">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D5" s="13">
         <v>0.3</v>
@@ -721,20 +725,20 @@
         <v>0</v>
       </c>
       <c r="F5" s="12">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G5" s="12">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H5" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22">
         <f>SUM(C5:H5)</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="23"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="K5" s="22"/>
       <c r="L5" s="2" t="s">
         <v>9</v>
       </c>
@@ -745,7 +749,7 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" ref="C6:H6" si="0">COUNT(C8:C21)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
@@ -753,7 +757,7 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
@@ -761,25 +765,25 @@
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="23"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <f t="shared" ref="C7:H7" si="1">IF(C6&lt;&gt;0,IF(C5&lt;&gt;0,(SUM(C8:C21)/C6)*C5,0), 0)</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
@@ -791,228 +795,216 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="1"/>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22">
         <f>SUM(C7:H7)</f>
-        <v>0.8680000000000001</v>
-      </c>
-      <c r="K7" s="23"/>
+        <v>0.9474999999999999</v>
+      </c>
+      <c r="K7" s="22"/>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="16">
-        <v>1</v>
-      </c>
-      <c r="D8" s="22">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="F8" s="20">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0.9</v>
-      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="19">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="10">
-        <v>0.66</v>
-      </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
+        <v>0.85</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="17">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="C9" s="20"/>
+      <c r="D9" s="18">
         <v>1</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>1</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="17">
-        <v>1</v>
-      </c>
-      <c r="D10" s="19">
+      <c r="C10" s="20"/>
+      <c r="D10" s="18">
         <v>1</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>1</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>4</v>
       </c>
-      <c r="C11" s="17">
-        <v>1</v>
-      </c>
-      <c r="D11" s="19">
+      <c r="C11" s="20"/>
+      <c r="D11" s="18">
         <v>1</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>1</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>5</v>
       </c>
-      <c r="C12" s="17">
-        <v>1</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="C12" s="20"/>
+      <c r="D12" s="18">
         <v>1</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>1</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>6</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="19">
+      <c r="C13" s="16"/>
+      <c r="D13" s="18">
         <v>1</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <v>1</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>7</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="19">
+      <c r="C14" s="16"/>
+      <c r="D14" s="18">
         <v>1</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>1</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>8</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="19">
+      <c r="C15" s="16"/>
+      <c r="D15" s="18">
         <v>1</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>1</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>9</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="19">
+      <c r="C16" s="16"/>
+      <c r="D16" s="18">
         <v>1</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>1</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>10</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="19">
+      <c r="C17" s="16"/>
+      <c r="D17" s="18">
         <v>1</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <v>1</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -1020,14 +1012,14 @@
         <v>11</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="19"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -1035,14 +1027,14 @@
         <v>12</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -1055,9 +1047,9 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1070,22 +1062,22 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
